--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/Angle/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/Angle/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\Angle\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553492F9-F019-4815-8743-182272F4C457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC3C43C-404F-40CF-AB60-FE07637F51C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{BC863191-3FBF-4877-ABB9-95A01A6B39D1}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{C4E328A9-CB22-4CCC-B9F0-B0E56A4499D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26297C16-429C-4A6A-997B-95FA48FCB161}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E868E984-9A09-4BD0-87D3-AE501C78F26C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>17.076561852075088</v>
+        <v>15.907136124684607</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/Angle/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/Angle/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\Angle\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC3C43C-404F-40CF-AB60-FE07637F51C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE055153-08D9-4365-B1AA-EE7076F27974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{C4E328A9-CB22-4CCC-B9F0-B0E56A4499D6}"/>
+    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{D5F056BF-602A-4F87-8888-8B758FCE4139}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,16 +401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E868E984-9A09-4BD0-87D3-AE501C78F26C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323B536F-AF4A-47E8-9617-0D44E2046BFE}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>15.907136124684607</v>
+        <v>5.9688833645568105</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/Angle/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/Angle/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\Angle\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE055153-08D9-4365-B1AA-EE7076F27974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E1D7E7-6AF8-4CD2-BE05-DE1C85840F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{D5F056BF-602A-4F87-8888-8B758FCE4139}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{6B0954BE-7AC8-4B64-BCE4-B606BAC2A074}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,16 +401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323B536F-AF4A-47E8-9617-0D44E2046BFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD96C820-1411-43AE-A645-051A26F322D9}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>5.9688833645568105</v>
+        <v>5.9688833048533256</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/Angle/f10_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/Angle/f10_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\Angle\f10_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E1D7E7-6AF8-4CD2-BE05-DE1C85840F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BECC84-D611-4F3F-9AE1-DDE43A40ED41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{6B0954BE-7AC8-4B64-BCE4-B606BAC2A074}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{0A5E3EE3-BBF9-4497-8AA5-7E645C157622}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD96C820-1411-43AE-A645-051A26F322D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9ABA3C-A5B2-482D-B297-3D2866A1FAB0}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
